--- a/pont sens/article analyse donnees reelles/ResultsB.xlsx
+++ b/pont sens/article analyse donnees reelles/ResultsB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F47DD-77B5-413C-88E7-63DF361DFFCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44325057-0BED-444E-B50B-623D08138522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TGV</t>
   </si>
@@ -43,19 +43,10 @@
     <t>z3</t>
   </si>
   <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>z5</t>
-  </si>
-  <si>
     <t>moy</t>
+  </si>
+  <si>
+    <t>ecart type</t>
   </si>
 </sst>
 </file>
@@ -373,22 +364,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,20 +402,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,25 +420,13 @@
         <v>3.3469933999000001</v>
       </c>
       <c r="F2">
-        <v>14.0209826243</v>
+        <v>14.2096744966</v>
       </c>
       <c r="G2">
-        <v>2.4158810722999999</v>
-      </c>
-      <c r="H2">
-        <v>19.7486526621</v>
-      </c>
-      <c r="I2">
-        <v>2.8628612770999999</v>
-      </c>
-      <c r="J2">
-        <v>28.2093189231</v>
-      </c>
-      <c r="K2">
-        <v>2.3701697298000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.053380615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -475,25 +443,13 @@
         <v>2.5951274520999998</v>
       </c>
       <c r="F3">
-        <v>13.6480798736</v>
+        <v>14.195335292599999</v>
       </c>
       <c r="G3">
-        <v>4.2336808386999998</v>
-      </c>
-      <c r="H3">
-        <v>18.802918221700001</v>
-      </c>
-      <c r="I3">
-        <v>4.3491774794999998</v>
-      </c>
-      <c r="J3">
-        <v>28.756671592699998</v>
-      </c>
-      <c r="K3">
-        <v>3.0393895482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2152591917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -510,25 +466,13 @@
         <v>3.6659355291</v>
       </c>
       <c r="F4">
-        <v>14.583234557999999</v>
+        <v>14.336555082</v>
       </c>
       <c r="G4">
-        <v>3.2336639516000001</v>
-      </c>
-      <c r="H4">
-        <v>19.420534861899998</v>
-      </c>
-      <c r="I4">
-        <v>4.9469898414999998</v>
-      </c>
-      <c r="J4">
-        <v>28.026907146599999</v>
-      </c>
-      <c r="K4">
-        <v>4.9745241915999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.2439669736000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -545,25 +489,13 @@
         <v>3.6271718058000002</v>
       </c>
       <c r="F5">
-        <v>14.298902762399999</v>
+        <v>14.3990191188</v>
       </c>
       <c r="G5">
-        <v>2.5805266574000001</v>
-      </c>
-      <c r="H5">
-        <v>17.604248510600002</v>
-      </c>
-      <c r="I5">
-        <v>7.0101084920999996</v>
-      </c>
-      <c r="J5">
-        <v>28.161754218799999</v>
-      </c>
-      <c r="K5">
-        <v>2.6943323909000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.9215185157999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -580,25 +512,13 @@
         <v>3.6506469985000001</v>
       </c>
       <c r="F6">
-        <v>14.223785490099999</v>
+        <v>14.317788218</v>
       </c>
       <c r="G6">
-        <v>2.6896792311</v>
-      </c>
-      <c r="H6">
-        <v>17.835649087299998</v>
-      </c>
-      <c r="I6">
-        <v>4.7266340636999997</v>
-      </c>
-      <c r="J6">
-        <v>28.4501238</v>
-      </c>
-      <c r="K6">
-        <v>2.7295876906999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.7326125393999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -615,25 +535,13 @@
         <v>1.4339697796999999</v>
       </c>
       <c r="F7">
-        <v>14.395762165500001</v>
+        <v>14.4553716948</v>
       </c>
       <c r="G7">
-        <v>1.8911476003000001</v>
-      </c>
-      <c r="H7">
-        <v>18.358764758900001</v>
-      </c>
-      <c r="I7">
-        <v>5.5775016075000003</v>
-      </c>
-      <c r="J7">
-        <v>28.466280898600001</v>
-      </c>
-      <c r="K7">
-        <v>2.8475486809000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.9718914890999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -649,20 +557,8 @@
       <c r="E8">
         <v>1.5317025186</v>
       </c>
-      <c r="H8">
-        <v>18.548967530100001</v>
-      </c>
-      <c r="I8">
-        <v>8.6419459901</v>
-      </c>
-      <c r="J8">
-        <v>28.429752589</v>
-      </c>
-      <c r="K8">
-        <v>2.0993584627000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -679,25 +575,13 @@
         <v>1.3323426529</v>
       </c>
       <c r="F9">
-        <v>14.263247143099999</v>
+        <v>14.3742208207</v>
       </c>
       <c r="G9">
-        <v>2.6852870501999999</v>
-      </c>
-      <c r="H9">
-        <v>18.7387640454</v>
-      </c>
-      <c r="I9">
-        <v>2.3932776559</v>
-      </c>
-      <c r="J9">
-        <v>28.4193384995</v>
-      </c>
-      <c r="K9">
-        <v>4.2407251131999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.7047780316000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -714,67 +598,68 @@
         <v>3.5910504394</v>
       </c>
       <c r="F10">
-        <v>12.9496147041</v>
+        <v>13.2638466929</v>
       </c>
       <c r="G10">
-        <v>3.9270300625000001</v>
-      </c>
-      <c r="H10">
-        <v>17.760227627100001</v>
-      </c>
-      <c r="I10">
-        <v>4.7794592528999997</v>
-      </c>
-      <c r="J10">
-        <v>28.426633822100001</v>
-      </c>
-      <c r="K10">
-        <v>4.0542756042999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+        <v>2.0090149412999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <f xml:space="preserve"> AVERAGE(B2:B10)</f>
         <v>6.8442724031444442</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:K11" si="0" xml:space="preserve"> AVERAGE(C2:C10)</f>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0" xml:space="preserve"> AVERAGE(C2:C10)</f>
         <v>2.0756452503888894</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>8.1380378507777795</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>2.752771175111111</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>14.047951165137501</v>
-      </c>
-      <c r="G11">
+        <v>14.193976427050002</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>2.9571120580125001</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>18.535414145011107</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>5.0319950733666667</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>28.371864610044444</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>3.2277679346999997</v>
+        <v>2.6065527871874998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f xml:space="preserve"> STDEVP(B2:B10)</f>
+        <v>0.10726643389011321</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="1" xml:space="preserve"> STDEVP(C2:C10)</f>
+        <v>0.31256546661172907</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.21726938522796094</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.98506363508539863</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.36123151571450052</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.45327306079548296</v>
       </c>
     </row>
   </sheetData>
